--- a/Lopez/table 2.xlsx
+++ b/Lopez/table 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\BCB546X_Final_Project\Lopez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90F56A5-3A40-46D1-9C74-10EDDDBF1C98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D2B42-C2A3-4FF1-9A0F-3CAAFC7C6876}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8385" windowHeight="6660" xr2:uid="{E1CE5348-D446-444F-B67A-C58208CFF36F}"/>
   </bookViews>
@@ -31,80 +31,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Ning</t>
   </si>
   <si>
-    <t>0.483a</t>
-  </si>
-  <si>
     <t>Sha</t>
   </si>
   <si>
-    <t>0.393a</t>
-  </si>
-  <si>
     <t>Sui</t>
   </si>
   <si>
-    <t>0.340a</t>
-  </si>
-  <si>
     <t>Xiang</t>
   </si>
   <si>
-    <t>0.229a</t>
-  </si>
-  <si>
     <t>Huo</t>
   </si>
   <si>
-    <t>0.367a</t>
-  </si>
-  <si>
     <t>DHS</t>
   </si>
   <si>
-    <t>0.447a</t>
-  </si>
-  <si>
     <t>Hu</t>
   </si>
   <si>
-    <t>0.472a</t>
-  </si>
-  <si>
     <t>Sand</t>
   </si>
   <si>
-    <t>0.412a</t>
-  </si>
-  <si>
     <t>Nan</t>
   </si>
   <si>
-    <t>0.538a</t>
-  </si>
-  <si>
     <t>Ding</t>
   </si>
   <si>
-    <t>0.430a</t>
-  </si>
-  <si>
     <t>Wan</t>
   </si>
   <si>
-    <t>0.344a</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
-    <t>0.405a</t>
-  </si>
-  <si>
     <t>Locations abbr.</t>
   </si>
   <si>
@@ -124,6 +88,12 @@
   </si>
   <si>
     <t>Fis</t>
+  </si>
+  <si>
+    <t>Fst</t>
+  </si>
+  <si>
+    <t>fst(1-fst)</t>
   </si>
 </sst>
 </file>
@@ -180,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -309,12 +279,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -359,6 +338,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,38 +661,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF660B1-1E51-45B3-91BD-892F139FAEFE}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" thickBot="1">
+    <row r="1" spans="1:9" ht="45.75" thickBot="1">
       <c r="A1" s="13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,8 +711,8 @@
       <c r="D2" s="4">
         <v>0.05</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
+      <c r="E2" s="5">
+        <v>0.48299999999999998</v>
       </c>
       <c r="F2" s="4">
         <v>0.52800000000000002</v>
@@ -729,10 +720,18 @@
       <c r="G2" s="6">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <f>(0.528-0.483)/0.528</f>
+        <v>8.5227272727272804E-2</v>
+      </c>
+      <c r="I2">
+        <f>H2*(1-H2)</f>
+        <v>7.7963584710743869E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>5.6</v>
@@ -743,8 +742,8 @@
       <c r="D3" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
+      <c r="E3" s="2">
+        <v>0.39300000000000002</v>
       </c>
       <c r="F3" s="1">
         <v>0.56200000000000006</v>
@@ -752,10 +751,18 @@
       <c r="G3" s="8">
         <v>0.312</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <f>(0.562-0.393)/0.562</f>
+        <v>0.30071174377224202</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="0">H3*(1-H3)</f>
+        <v>0.21028419092969949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>5.7</v>
@@ -766,8 +773,8 @@
       <c r="D4" s="1">
         <v>0.15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
+      <c r="E4" s="2">
+        <v>0.34</v>
       </c>
       <c r="F4" s="1">
         <v>0.55100000000000005</v>
@@ -775,10 +782,18 @@
       <c r="G4" s="8">
         <v>0.39500000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <f>(0.551-0.34)/0.551</f>
+        <v>0.38294010889292196</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.23629698189399903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.0999999999999996</v>
@@ -789,8 +804,8 @@
       <c r="D5" s="1">
         <v>0.19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
+      <c r="E5" s="2">
+        <v>0.22900000000000001</v>
       </c>
       <c r="F5" s="1">
         <v>0.49399999999999999</v>
@@ -798,10 +813,18 @@
       <c r="G5" s="8">
         <v>0.55900000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <f>(0.494-0.229)/0.494</f>
+        <v>0.53643724696356276</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.24867232703371633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>6.4</v>
@@ -812,8 +835,8 @@
       <c r="D6" s="1">
         <v>0.51</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
+      <c r="E6" s="2">
+        <v>0.36699999999999999</v>
       </c>
       <c r="F6" s="1">
         <v>0.63200000000000001</v>
@@ -821,10 +844,18 @@
       <c r="G6" s="8">
         <v>0.44400000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <f>(0.632-0.367)/0.632</f>
+        <v>0.41930379746835444</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.24348812289697164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>6.9</v>
@@ -835,8 +866,8 @@
       <c r="D7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
+      <c r="E7" s="2">
+        <v>0.44700000000000001</v>
       </c>
       <c r="F7" s="1">
         <v>0.58899999999999997</v>
@@ -844,10 +875,18 @@
       <c r="G7" s="8">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <f>(0.589-0.447)/0.589</f>
+        <v>0.24108658743633271</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.1829638447946362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6.7</v>
@@ -858,8 +897,8 @@
       <c r="D8" s="1">
         <v>0.32</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
+      <c r="E8" s="2">
+        <v>0.47199999999999998</v>
       </c>
       <c r="F8" s="1">
         <v>0.59099999999999997</v>
@@ -867,10 +906,18 @@
       <c r="G8" s="8">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <f>(F8-E8)/F8</f>
+        <v>0.20135363790186125</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.16081035040554739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7.1</v>
@@ -881,8 +928,8 @@
       <c r="D9" s="1">
         <v>0.27</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
+      <c r="E9" s="2">
+        <v>0.41199999999999998</v>
       </c>
       <c r="F9" s="1">
         <v>0.68300000000000005</v>
@@ -890,10 +937,18 @@
       <c r="G9" s="8">
         <v>0.371</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <f t="shared" ref="H9:H13" si="1">(F9-E9)/F9</f>
+        <v>0.39677891654465602</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.23934540793030493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>6.7</v>
@@ -904,8 +959,8 @@
       <c r="D10" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
+      <c r="E10" s="2">
+        <v>0.53800000000000003</v>
       </c>
       <c r="F10" s="1">
         <v>0.55700000000000005</v>
@@ -913,10 +968,18 @@
       <c r="G10" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>3.4111310592459629E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>3.2947729082124379E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>8.1999999999999993</v>
@@ -927,8 +990,8 @@
       <c r="D11" s="1">
         <v>1.5</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
+      <c r="E11" s="2">
+        <v>0.43</v>
       </c>
       <c r="F11" s="1">
         <v>0.65100000000000002</v>
@@ -936,10 +999,18 @@
       <c r="G11" s="8">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.33947772657450082</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.22423259973430928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>5.2</v>
@@ -950,8 +1021,8 @@
       <c r="D12" s="1">
         <v>0.5</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
+      <c r="E12" s="2">
+        <v>0.34399999999999997</v>
       </c>
       <c r="F12" s="1">
         <v>0.53900000000000003</v>
@@ -959,10 +1030,18 @@
       <c r="G12" s="8">
         <v>0.40600000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.36178107606679044</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.23089552906674563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" s="9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10">
         <v>6.3</v>
@@ -973,14 +1052,22 @@
       <c r="D13" s="10">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>23</v>
+      <c r="E13" s="11">
+        <v>0.40500000000000003</v>
       </c>
       <c r="F13" s="10">
         <v>0.57999999999999996</v>
       </c>
       <c r="G13" s="12">
         <v>0.316</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.30172413793103436</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.21068668252080852</v>
       </c>
     </row>
   </sheetData>

--- a/Lopez/table 2.xlsx
+++ b/Lopez/table 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\BCB546X_Final_Project\Lopez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D2B42-C2A3-4FF1-9A0F-3CAAFC7C6876}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B195C71C-02C2-4AC7-A0AF-596C2255193B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8385" windowHeight="6660" xr2:uid="{E1CE5348-D446-444F-B67A-C58208CFF36F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Ning</t>
   </si>
@@ -94,13 +94,88 @@
   </si>
   <si>
     <t>fst(1-fst)</t>
+  </si>
+  <si>
+    <t>Lat.(N)</t>
+  </si>
+  <si>
+    <t>Lon.(E)</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>RL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(km)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>nSSR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>mtDNA</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +210,25 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -150,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -288,12 +382,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF9E9E9E"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9E9E9E"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9E9E9E"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -344,6 +462,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,15 +788,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF660B1-1E51-45B3-91BD-892F139FAEFE}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="45.75" thickBot="1">
+    <row r="1" spans="1:15" ht="45.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -697,8 +824,24 @@
       <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="J1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="20"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -728,8 +871,24 @@
         <f>H2*(1-H2)</f>
         <v>7.7963584710743869E-2</v>
       </c>
+      <c r="J2" s="1">
+        <v>26.664169999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>119.5489</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1746.6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8">
+        <v>10</v>
+      </c>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -759,8 +918,24 @@
         <f t="shared" ref="I3:I13" si="0">H3*(1-H3)</f>
         <v>0.21028419092969949</v>
       </c>
+      <c r="J3" s="1">
+        <v>26.418579999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>117.81847</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1670.6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>27</v>
+      </c>
+      <c r="N3" s="8">
+        <v>7</v>
+      </c>
+      <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -790,8 +965,24 @@
         <f t="shared" si="0"/>
         <v>0.23629698189399903</v>
       </c>
+      <c r="J4" s="1">
+        <v>26.476389999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>114.23917</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1549.5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8">
+        <v>11</v>
+      </c>
+      <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -821,8 +1012,24 @@
         <f t="shared" si="0"/>
         <v>0.24867232703371633</v>
       </c>
+      <c r="J5" s="1">
+        <v>22.424440000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>114.30638999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1268.7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>16</v>
+      </c>
+      <c r="N5" s="8">
+        <v>8</v>
+      </c>
+      <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -852,8 +1059,24 @@
         <f t="shared" si="0"/>
         <v>0.24348812289697164</v>
       </c>
+      <c r="J6" s="1">
+        <v>23.170310000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>113.37267</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1293</v>
+      </c>
+      <c r="M6" s="1">
+        <v>15</v>
+      </c>
+      <c r="N6" s="8">
+        <v>20</v>
+      </c>
+      <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -883,8 +1106,24 @@
         <f t="shared" si="0"/>
         <v>0.1829638447946362</v>
       </c>
+      <c r="J7" s="1">
+        <v>23.16638</v>
+      </c>
+      <c r="K7" s="1">
+        <v>112.54277999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1265.8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>24</v>
+      </c>
+      <c r="N7" s="8">
+        <v>14</v>
+      </c>
+      <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -914,8 +1153,24 @@
         <f t="shared" si="0"/>
         <v>0.16081035040554739</v>
       </c>
+      <c r="J8" s="1">
+        <v>25.570830000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>111.9456</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1405.3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>20</v>
+      </c>
+      <c r="N8" s="8">
+        <v>7</v>
+      </c>
+      <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -945,8 +1200,24 @@
         <f t="shared" si="0"/>
         <v>0.23934540793030493</v>
       </c>
+      <c r="J9" s="1">
+        <v>25.983560000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>107.87428</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1278.7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>18</v>
+      </c>
+      <c r="N9" s="8">
+        <v>6</v>
+      </c>
+      <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1247,24 @@
         <f t="shared" si="0"/>
         <v>3.2947729082124379E-2</v>
       </c>
+      <c r="J10" s="1">
+        <v>22.78659</v>
+      </c>
+      <c r="K10" s="1">
+        <v>108.38871</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1101.9000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>19</v>
+      </c>
+      <c r="N10" s="8">
+        <v>9</v>
+      </c>
+      <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1294,24 @@
         <f t="shared" si="0"/>
         <v>0.22423259973430928</v>
       </c>
+      <c r="J11" s="1">
+        <v>19.697220000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>110.3283</v>
+      </c>
+      <c r="L11" s="1">
+        <v>964.3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>19</v>
+      </c>
+      <c r="N11" s="8">
+        <v>8</v>
+      </c>
+      <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1038,8 +1341,24 @@
         <f t="shared" si="0"/>
         <v>0.23089552906674563</v>
       </c>
+      <c r="J12" s="1">
+        <v>18.795000000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>110.3908</v>
+      </c>
+      <c r="L12" s="1">
+        <v>891.8</v>
+      </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="8">
+        <v>10</v>
+      </c>
+      <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1069,6 +1388,16 @@
         <f t="shared" si="0"/>
         <v>0.21068668252080852</v>
       </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10">
+        <v>208</v>
+      </c>
+      <c r="N13" s="12">
+        <v>110</v>
+      </c>
+      <c r="O13" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
